--- a/TestData/ExcelFile.xlsx
+++ b/TestData/ExcelFile.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="50">
   <si>
     <t>Doctor Name</t>
   </si>
@@ -564,16 +564,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>6</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>9</v>
@@ -581,16 +581,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>6</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>9</v>
@@ -598,16 +598,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>6</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>9</v>
@@ -615,16 +615,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>6</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>9</v>
